--- a/rrd/AppData/Lead_ExistingOpportunity.xlsx
+++ b/rrd/AppData/Lead_ExistingOpportunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6062367-723E-4EC2-A6E2-2724AD990CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91A46A-C353-40DB-BB85-39BAF8D0E0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExistingOpportunity_TC05" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="ExistingOpportunity_TC07" sheetId="3" r:id="rId3"/>
     <sheet name="ExistingOpportunity_TC08" sheetId="4" r:id="rId4"/>
     <sheet name="ExistingOpportunityFilter_TC10" sheetId="5" r:id="rId5"/>
+    <sheet name="ExistingOpportunityFilter_TC11" sheetId="6" r:id="rId6"/>
+    <sheet name="ExistingOpportunityFilter_TC12" sheetId="7" r:id="rId7"/>
+    <sheet name="ExistingOpportunityFilter_TC13" sheetId="8" r:id="rId8"/>
+    <sheet name="ExistingOpportunityFilter_TC14" sheetId="9" r:id="rId9"/>
+    <sheet name="ExistingOpportunityFilter_TC15" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="41">
   <si>
     <t>Amount</t>
   </si>
@@ -88,9 +93,6 @@
     <t>10/30/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Test User </t>
-  </si>
-  <si>
     <t>Lead_EO</t>
   </si>
   <si>
@@ -115,10 +117,46 @@
     <t>Lead_EO_3</t>
   </si>
   <si>
-    <t>Test MIRketa 1</t>
-  </si>
-  <si>
     <t>Lead_EO_4</t>
+  </si>
+  <si>
+    <t>Test MIRketa1</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>Lead_EO_TC11</t>
+  </si>
+  <si>
+    <t>Test Admin</t>
+  </si>
+  <si>
+    <t>Test Host</t>
+  </si>
+  <si>
+    <t>Lead_EO_TC12</t>
+  </si>
+  <si>
+    <t>Test Provider</t>
+  </si>
+  <si>
+    <t>Lead_EO_TC13</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Lead_EO_TC14</t>
+  </si>
+  <si>
+    <t>Test Advisor</t>
+  </si>
+  <si>
+    <t>Test Banking</t>
+  </si>
+  <si>
+    <t>Lead_EO_TC15</t>
   </si>
 </sst>
 </file>
@@ -546,13 +584,108 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3065EE-707A-47C3-B156-6349EC638D69}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -644,10 +777,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -742,10 +875,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -754,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
@@ -841,10 +974,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -872,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF0670B-1BEE-4F46-BDCF-38A016BEB546}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,7 +1077,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>13</v>
@@ -954,6 +1087,391 @@
       </c>
       <c r="H2" t="s">
         <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660A463C-2200-4ACC-8DC0-C8739B8842D8}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF81015-397D-4CEB-A11B-FF7A190DFA3A}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC89B06D-4D8B-40FF-85C3-D950358521E5}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015579CB-3391-4494-A702-D759BF8038B2}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>

--- a/rrd/AppData/Lead_ExistingOpportunity.xlsx
+++ b/rrd/AppData/Lead_ExistingOpportunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91A46A-C353-40DB-BB85-39BAF8D0E0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDD770-5EBC-49AB-9C12-F32B8F54769A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExistingOpportunity_TC05" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3065EE-707A-47C3-B156-6349EC638D69}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -808,7 +808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F19623-FA70-435D-A61B-49219BF0F8CC}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
